--- a/ブログ一覧_結合テスト.xlsx
+++ b/ブログ一覧_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E95A5A54-E520-4CBD-8FDD-8A2D6CC83023}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60FC8065-D078-47CA-AA8D-AF001C8ADCFC}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ一覧画面" sheetId="1" r:id="rId1"/>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3090,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3145,7 +3145,7 @@
         <v>105</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3183,7 +3183,7 @@
         <v>106</v>
       </c>
       <c r="G10" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3234,7 +3234,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3285,7 +3285,7 @@
         <v>107</v>
       </c>
       <c r="G16" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -3323,7 +3323,7 @@
         <v>108</v>
       </c>
       <c r="G18" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -3361,7 +3361,7 @@
         <v>109</v>
       </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -3412,7 +3412,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -3450,7 +3450,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -3486,7 +3486,7 @@
         <v>112</v>
       </c>
       <c r="G27" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>73</v>
@@ -3522,7 +3522,7 @@
         <v>113</v>
       </c>
       <c r="G29" s="4">
-        <v>46007</v>
+        <v>45662</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
@@ -3575,7 +3575,7 @@
         <v>93</v>
       </c>
       <c r="G32" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -3610,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638B8A9D-0B02-45CE-A6BA-A6221DF62C67}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3662,7 +3662,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3717,7 +3717,7 @@
         <v>123</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3753,7 +3753,7 @@
         <v>129</v>
       </c>
       <c r="G10" s="4">
-        <v>46007</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3806,7 +3806,7 @@
         <v>93</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3842,7 +3842,7 @@
         <v>126</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
